--- a/biology/Histoire de la zoologie et de la botanique/The_Birds_of_the_Western_Palearctic/The_Birds_of_the_Western_Palearctic.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/The_Birds_of_the_Western_Palearctic/The_Birds_of_the_Western_Palearctic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La collection The Birds of the Western Palearctic (BWP) comporte neuf volumes constituant une synthèse des informations sur les oiseaux du Paléarctique occidental. Son titre entier est Handbook of the Birds of Europe, the Middle East, and North Africa: The Birds of the Western Palearctic et est souvent abrégé en BWP.
@@ -514,7 +526,9 @@
           <t>Liste des volumes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Édition complète
 Cramp S. &amp; Simmons K.E.L. (1977) The Birds of the Western Palearctic Volume I. Oxford University Press, Oxford, New York, 722 p.
